--- a/analysis/data/tables/data_sources.xlsx
+++ b/analysis/data/tables/data_sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahurl\Documents\_work\p041_berlin_transport_cov\analysis\data\processed\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahurl\Documents\_work\p024_gfz_berlin-trees\berlin.trees\analysis\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A0BCA2-41A3-4DDE-AD61-4BC86FA2339C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A79FD7A-95D4-484D-80E2-A4931637D1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{81895198-9C62-4C93-9E35-5B090025889B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{81895198-9C62-4C93-9E35-5B090025889B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -700,21 +700,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C164DAAA-26B7-4D95-AC26-51CB2201F682}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="9" width="23.109375" customWidth="1"/>
-    <col min="10" max="11" width="27.109375" customWidth="1"/>
-    <col min="12" max="12" width="25.5546875" customWidth="1"/>
+    <col min="1" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="11" width="27.140625" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,7 +796,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -837,7 +837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="94.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="94.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -878,7 +878,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -917,7 +917,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -958,7 +958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -999,7 +999,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="143.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="143.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>

--- a/analysis/data/tables/data_sources.xlsx
+++ b/analysis/data/tables/data_sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahurl\Documents\_work\p024_gfz_berlin-trees\berlin.trees\analysis\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A79FD7A-95D4-484D-80E2-A4931637D1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BFACEA-8482-4AA8-9BAE-A97DD5C97FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{81895198-9C62-4C93-9E35-5B090025889B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Berlin Climate Model, Air temperature 2015 (Umweltatlas)</t>
   </si>
   <si>
-    <t>Chakaborty et al. (2019)</t>
-  </si>
-  <si>
     <t>Demuzere et al. (2019)</t>
   </si>
   <si>
@@ -277,6 +274,42 @@
   </si>
   <si>
     <t>https://fbinter.stadt-berlin.de/fb/wfs/data/senstadt/sach_nutz2015_nutzsa</t>
+  </si>
+  <si>
+    <t>trees</t>
+  </si>
+  <si>
+    <t>gov</t>
+  </si>
+  <si>
+    <t>landuse</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>ancillary</t>
+  </si>
+  <si>
+    <t>Surface UHI Berlin</t>
+  </si>
+  <si>
+    <t>UrbClim Modell</t>
+  </si>
+  <si>
+    <t>Chakraborty et al. (2019)</t>
+  </si>
+  <si>
+    <t>Deridder et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://cds.climate.copernicus.eu/cdsapp#!/dataset/sis-urban-climate-cities</t>
+  </si>
+  <si>
+    <t>https://cds.climate.copernicus.eu/</t>
+  </si>
+  <si>
+    <t>UrbClim ERA5 Model Output (ECMWF, UCSC)</t>
   </si>
 </sst>
 </file>
@@ -698,700 +731,793 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C164DAAA-26B7-4D95-AC26-51CB2201F682}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="11" width="27.140625" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1"/>
+    <col min="1" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="12" width="27.140625" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>44105</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>56</v>
+      <c r="L2" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>44105</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="94.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="94.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>44105</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>56</v>
+      <c r="L4" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>44105</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>56</v>
+      <c r="L5" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2">
         <v>44228</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>56</v>
+      <c r="L6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2">
         <v>44228</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>56</v>
+      <c r="L7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44315</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44315</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2">
         <v>44105</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>100</v>
+      </c>
+      <c r="J9" s="1">
+        <v>150</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="L9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43800</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="1">
-        <v>100</v>
-      </c>
-      <c r="I9" s="1">
-        <v>150</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43800</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>500</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>43800</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>500</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>0</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>56</v>
+      <c r="L11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="143.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="143.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>44105</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="I12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="4">
         <v>150</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>56</v>
+      <c r="L12" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>44136</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="I13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>56</v>
+      <c r="K13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2">
         <v>44228</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="1">
         <v>20</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>56</v>
+      <c r="L14" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44256</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="4">
+        <v>100</v>
+      </c>
+      <c r="J15" s="1">
+        <v>150</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>44105</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="I16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="L16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E17" s="5">
         <v>44105</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="F17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="I17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>56</v>
+      <c r="K17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{458AD6AA-8B4C-4537-A6E6-4C8A0B7E7678}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{F8FC1015-3D13-4FCA-8372-9BCBC8E5D75C}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{6935445F-A4FA-4FD5-956C-74BFF10A8AA7}"/>
-    <hyperlink ref="J15" r:id="rId4" xr:uid="{CF8A21CF-CF60-4CE9-94ED-B1902282F5D2}"/>
-    <hyperlink ref="J10" r:id="rId5" xr:uid="{8BC4B397-D767-4955-84C9-430AA8D6AC28}"/>
-    <hyperlink ref="J11" r:id="rId6" xr:uid="{5CB7211E-0F20-4DFC-ACA2-CFA0E9F1EF2E}"/>
-    <hyperlink ref="J5" r:id="rId7" xr:uid="{FD4C9305-C452-43FB-BAA1-3215F6F6DFEF}"/>
-    <hyperlink ref="J16" r:id="rId8" xr:uid="{E2E85BAC-2DE1-4379-8079-F6E3B207DF53}"/>
-    <hyperlink ref="J9" r:id="rId9" xr:uid="{6F686F53-C18F-4F53-ACC3-BC485BE25C86}"/>
-    <hyperlink ref="J12" r:id="rId10" xr:uid="{54942378-004E-4303-8154-C11450F60C70}"/>
-    <hyperlink ref="J13" r:id="rId11" xr:uid="{27E22707-4A90-40A6-9FAF-569297625F94}"/>
-    <hyperlink ref="J14" r:id="rId12" xr:uid="{5D594C03-3974-40E2-BA86-50576CC86882}"/>
-    <hyperlink ref="K2" r:id="rId13" xr:uid="{10DA02FC-3315-465D-AD50-303A9218B7C8}"/>
-    <hyperlink ref="K3" r:id="rId14" xr:uid="{A5EDC7BC-D5F8-4C07-9114-5CFF1D169FDE}"/>
-    <hyperlink ref="K4" r:id="rId15" xr:uid="{013287DC-B7F0-4236-B1BA-5CBC9E064871}"/>
-    <hyperlink ref="K15" r:id="rId16" xr:uid="{8229B9D9-92A0-45C0-90C6-72CD52636E93}"/>
-    <hyperlink ref="K5" r:id="rId17" xr:uid="{5A3EFEA4-DC17-44DB-8C77-0F0ABA0C8931}"/>
-    <hyperlink ref="K16" r:id="rId18" xr:uid="{85DDADDB-1221-4FDF-81B7-D18990F14B74}"/>
-    <hyperlink ref="K12" r:id="rId19" xr:uid="{1B823040-531D-4CE7-8879-AA0FDDD620BD}"/>
-    <hyperlink ref="K13" r:id="rId20" xr:uid="{6249F515-9C71-4CDD-B59E-1F54366F8A92}"/>
-    <hyperlink ref="K14" r:id="rId21" xr:uid="{21F82AE3-A2CC-4B80-BB64-76D5E88DDDC9}"/>
-    <hyperlink ref="K10" r:id="rId22" xr:uid="{BE96090B-8B4D-4847-B6CF-0587508FA790}"/>
-    <hyperlink ref="K11" r:id="rId23" xr:uid="{0E017919-4130-451E-8F58-209579EB54E5}"/>
-    <hyperlink ref="K9" r:id="rId24" xr:uid="{C290B396-A280-4ED1-8009-948078A28525}"/>
-    <hyperlink ref="K8" r:id="rId25" xr:uid="{B12BF664-4374-490A-B577-48803EC6EC18}"/>
-    <hyperlink ref="J8" r:id="rId26" xr:uid="{C77CE5B5-97D1-43EF-89BE-50E7C3558263}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{458AD6AA-8B4C-4537-A6E6-4C8A0B7E7678}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{F8FC1015-3D13-4FCA-8372-9BCBC8E5D75C}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{6935445F-A4FA-4FD5-956C-74BFF10A8AA7}"/>
+    <hyperlink ref="K16" r:id="rId4" xr:uid="{CF8A21CF-CF60-4CE9-94ED-B1902282F5D2}"/>
+    <hyperlink ref="K10" r:id="rId5" xr:uid="{8BC4B397-D767-4955-84C9-430AA8D6AC28}"/>
+    <hyperlink ref="K11" r:id="rId6" xr:uid="{5CB7211E-0F20-4DFC-ACA2-CFA0E9F1EF2E}"/>
+    <hyperlink ref="K5" r:id="rId7" xr:uid="{FD4C9305-C452-43FB-BAA1-3215F6F6DFEF}"/>
+    <hyperlink ref="K17" r:id="rId8" xr:uid="{E2E85BAC-2DE1-4379-8079-F6E3B207DF53}"/>
+    <hyperlink ref="K9" r:id="rId9" xr:uid="{6F686F53-C18F-4F53-ACC3-BC485BE25C86}"/>
+    <hyperlink ref="K12" r:id="rId10" xr:uid="{54942378-004E-4303-8154-C11450F60C70}"/>
+    <hyperlink ref="K13" r:id="rId11" xr:uid="{27E22707-4A90-40A6-9FAF-569297625F94}"/>
+    <hyperlink ref="K14" r:id="rId12" xr:uid="{5D594C03-3974-40E2-BA86-50576CC86882}"/>
+    <hyperlink ref="L2" r:id="rId13" xr:uid="{10DA02FC-3315-465D-AD50-303A9218B7C8}"/>
+    <hyperlink ref="L3" r:id="rId14" xr:uid="{A5EDC7BC-D5F8-4C07-9114-5CFF1D169FDE}"/>
+    <hyperlink ref="L4" r:id="rId15" xr:uid="{013287DC-B7F0-4236-B1BA-5CBC9E064871}"/>
+    <hyperlink ref="L16" r:id="rId16" xr:uid="{8229B9D9-92A0-45C0-90C6-72CD52636E93}"/>
+    <hyperlink ref="L5" r:id="rId17" xr:uid="{5A3EFEA4-DC17-44DB-8C77-0F0ABA0C8931}"/>
+    <hyperlink ref="L17" r:id="rId18" xr:uid="{85DDADDB-1221-4FDF-81B7-D18990F14B74}"/>
+    <hyperlink ref="L12" r:id="rId19" xr:uid="{1B823040-531D-4CE7-8879-AA0FDDD620BD}"/>
+    <hyperlink ref="L13" r:id="rId20" xr:uid="{6249F515-9C71-4CDD-B59E-1F54366F8A92}"/>
+    <hyperlink ref="L14" r:id="rId21" xr:uid="{21F82AE3-A2CC-4B80-BB64-76D5E88DDDC9}"/>
+    <hyperlink ref="L10" r:id="rId22" xr:uid="{BE96090B-8B4D-4847-B6CF-0587508FA790}"/>
+    <hyperlink ref="L11" r:id="rId23" xr:uid="{0E017919-4130-451E-8F58-209579EB54E5}"/>
+    <hyperlink ref="L9" r:id="rId24" xr:uid="{C290B396-A280-4ED1-8009-948078A28525}"/>
+    <hyperlink ref="L8" r:id="rId25" xr:uid="{B12BF664-4374-490A-B577-48803EC6EC18}"/>
+    <hyperlink ref="K8" r:id="rId26" xr:uid="{C77CE5B5-97D1-43EF-89BE-50E7C3558263}"/>
+    <hyperlink ref="L15" r:id="rId27" xr:uid="{188668AA-BCC5-4361-B248-E7F464FB7593}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/analysis/data/tables/data_sources.xlsx
+++ b/analysis/data/tables/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahurl\Documents\_work\p024_gfz_berlin-trees\berlin.trees\analysis\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BFACEA-8482-4AA8-9BAE-A97DD5C97FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF162A2-C817-49B7-AE77-46F1448B650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{81895198-9C62-4C93-9E35-5B090025889B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>UrbClim ERA5 Model Output (ECMWF, UCSC)</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -733,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C164DAAA-26B7-4D95-AC26-51CB2201F682}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>43</v>

--- a/analysis/data/tables/data_sources.xlsx
+++ b/analysis/data/tables/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahurl\Documents\_work\p024_gfz_berlin-trees\berlin.trees\analysis\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF162A2-C817-49B7-AE77-46F1448B650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E4DC48-02FD-4A7F-A723-AC9F57574528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{81895198-9C62-4C93-9E35-5B090025889B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>150/300</t>
   </si>
 </sst>
 </file>
@@ -736,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C164DAAA-26B7-4D95-AC26-51CB2201F682}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,8 +1125,8 @@
       <c r="I9" s="1">
         <v>100</v>
       </c>
-      <c r="J9" s="1">
-        <v>150</v>
+      <c r="J9" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>56</v>
@@ -1167,7 +1170,7 @@
         <v>500</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>22</v>
@@ -1211,7 +1214,7 @@
         <v>500</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>22</v>
@@ -1254,8 +1257,8 @@
       <c r="I12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="4">
-        <v>150</v>
+      <c r="J12" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>32</v>

--- a/analysis/data/tables/data_sources.xlsx
+++ b/analysis/data/tables/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahurl\Documents\_work\p024_gfz_berlin-trees\berlin.trees\analysis\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E4DC48-02FD-4A7F-A723-AC9F57574528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971BB584-B3E6-4D06-BA4B-6EDB38DF4503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{81895198-9C62-4C93-9E35-5B090025889B}"/>
   </bookViews>
@@ -739,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C164DAAA-26B7-4D95-AC26-51CB2201F682}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>

--- a/analysis/data/tables/data_sources.xlsx
+++ b/analysis/data/tables/data_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahurl\Documents\_work\p024_gfz_berlin-trees\berlin.trees\analysis\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971BB584-B3E6-4D06-BA4B-6EDB38DF4503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E7912-3D9E-4E3D-B70A-6EC18E9AEC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{81895198-9C62-4C93-9E35-5B090025889B}"/>
+    <workbookView xWindow="30" yWindow="240" windowWidth="28770" windowHeight="15510" xr2:uid="{81895198-9C62-4C93-9E35-5B090025889B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -316,6 +316,15 @@
   </si>
   <si>
     <t>150/300</t>
+  </si>
+  <si>
+    <t>Copernicus CORINE CLC</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/pan-european/corine-land-cover/clc2018</t>
+  </si>
+  <si>
+    <t>https://land.copernicus.eu/</t>
   </si>
 </sst>
 </file>
@@ -737,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C164DAAA-26B7-4D95-AC26-51CB2201F682}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,22 +1108,22 @@
     </row>
     <row r="9" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2">
-        <v>44105</v>
+        <v>44276</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>55</v>
@@ -1126,63 +1135,59 @@
         <v>100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2">
-        <v>43800</v>
+        <v>44105</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="1">
-        <v>500</v>
-      </c>
-      <c r="J10" s="1">
-        <v>150</v>
+        <v>100</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1196,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <v>43800</v>
@@ -1222,78 +1227,78 @@
       <c r="L11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>55</v>
+      <c r="M11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="143.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43800</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1">
+        <v>500</v>
+      </c>
+      <c r="J12" s="1">
+        <v>150</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="143.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="5">
-        <v>44105</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>17</v>
@@ -1301,11 +1306,11 @@
       <c r="I13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="4">
-        <v>0</v>
+      <c r="J13" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>70</v>
@@ -1318,38 +1323,38 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44228</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>44136</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="1">
-        <v>20</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>35</v>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>70</v>
@@ -1361,21 +1366,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>64</v>
@@ -1384,104 +1389,104 @@
         <v>74</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="1">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44256</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>100</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J16" s="1">
         <v>150</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="7" t="s">
+      <c r="M16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44105</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
         <v>44105</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="F17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>59</v>
+      <c r="K17" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>70</v>
@@ -1490,6 +1495,50 @@
         <v>55</v>
       </c>
       <c r="N17" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="5">
+        <v>44105</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1498,32 +1547,33 @@
     <hyperlink ref="K2" r:id="rId1" xr:uid="{458AD6AA-8B4C-4537-A6E6-4C8A0B7E7678}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{F8FC1015-3D13-4FCA-8372-9BCBC8E5D75C}"/>
     <hyperlink ref="K4" r:id="rId3" xr:uid="{6935445F-A4FA-4FD5-956C-74BFF10A8AA7}"/>
-    <hyperlink ref="K16" r:id="rId4" xr:uid="{CF8A21CF-CF60-4CE9-94ED-B1902282F5D2}"/>
-    <hyperlink ref="K10" r:id="rId5" xr:uid="{8BC4B397-D767-4955-84C9-430AA8D6AC28}"/>
-    <hyperlink ref="K11" r:id="rId6" xr:uid="{5CB7211E-0F20-4DFC-ACA2-CFA0E9F1EF2E}"/>
+    <hyperlink ref="K17" r:id="rId4" xr:uid="{CF8A21CF-CF60-4CE9-94ED-B1902282F5D2}"/>
+    <hyperlink ref="K11" r:id="rId5" xr:uid="{8BC4B397-D767-4955-84C9-430AA8D6AC28}"/>
+    <hyperlink ref="K12" r:id="rId6" xr:uid="{5CB7211E-0F20-4DFC-ACA2-CFA0E9F1EF2E}"/>
     <hyperlink ref="K5" r:id="rId7" xr:uid="{FD4C9305-C452-43FB-BAA1-3215F6F6DFEF}"/>
-    <hyperlink ref="K17" r:id="rId8" xr:uid="{E2E85BAC-2DE1-4379-8079-F6E3B207DF53}"/>
-    <hyperlink ref="K9" r:id="rId9" xr:uid="{6F686F53-C18F-4F53-ACC3-BC485BE25C86}"/>
-    <hyperlink ref="K12" r:id="rId10" xr:uid="{54942378-004E-4303-8154-C11450F60C70}"/>
-    <hyperlink ref="K13" r:id="rId11" xr:uid="{27E22707-4A90-40A6-9FAF-569297625F94}"/>
-    <hyperlink ref="K14" r:id="rId12" xr:uid="{5D594C03-3974-40E2-BA86-50576CC86882}"/>
+    <hyperlink ref="K18" r:id="rId8" xr:uid="{E2E85BAC-2DE1-4379-8079-F6E3B207DF53}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{6F686F53-C18F-4F53-ACC3-BC485BE25C86}"/>
+    <hyperlink ref="K13" r:id="rId10" xr:uid="{54942378-004E-4303-8154-C11450F60C70}"/>
+    <hyperlink ref="K14" r:id="rId11" xr:uid="{27E22707-4A90-40A6-9FAF-569297625F94}"/>
+    <hyperlink ref="K15" r:id="rId12" xr:uid="{5D594C03-3974-40E2-BA86-50576CC86882}"/>
     <hyperlink ref="L2" r:id="rId13" xr:uid="{10DA02FC-3315-465D-AD50-303A9218B7C8}"/>
     <hyperlink ref="L3" r:id="rId14" xr:uid="{A5EDC7BC-D5F8-4C07-9114-5CFF1D169FDE}"/>
     <hyperlink ref="L4" r:id="rId15" xr:uid="{013287DC-B7F0-4236-B1BA-5CBC9E064871}"/>
-    <hyperlink ref="L16" r:id="rId16" xr:uid="{8229B9D9-92A0-45C0-90C6-72CD52636E93}"/>
+    <hyperlink ref="L17" r:id="rId16" xr:uid="{8229B9D9-92A0-45C0-90C6-72CD52636E93}"/>
     <hyperlink ref="L5" r:id="rId17" xr:uid="{5A3EFEA4-DC17-44DB-8C77-0F0ABA0C8931}"/>
-    <hyperlink ref="L17" r:id="rId18" xr:uid="{85DDADDB-1221-4FDF-81B7-D18990F14B74}"/>
-    <hyperlink ref="L12" r:id="rId19" xr:uid="{1B823040-531D-4CE7-8879-AA0FDDD620BD}"/>
-    <hyperlink ref="L13" r:id="rId20" xr:uid="{6249F515-9C71-4CDD-B59E-1F54366F8A92}"/>
-    <hyperlink ref="L14" r:id="rId21" xr:uid="{21F82AE3-A2CC-4B80-BB64-76D5E88DDDC9}"/>
-    <hyperlink ref="L10" r:id="rId22" xr:uid="{BE96090B-8B4D-4847-B6CF-0587508FA790}"/>
-    <hyperlink ref="L11" r:id="rId23" xr:uid="{0E017919-4130-451E-8F58-209579EB54E5}"/>
-    <hyperlink ref="L9" r:id="rId24" xr:uid="{C290B396-A280-4ED1-8009-948078A28525}"/>
+    <hyperlink ref="L18" r:id="rId18" xr:uid="{85DDADDB-1221-4FDF-81B7-D18990F14B74}"/>
+    <hyperlink ref="L13" r:id="rId19" xr:uid="{1B823040-531D-4CE7-8879-AA0FDDD620BD}"/>
+    <hyperlink ref="L14" r:id="rId20" xr:uid="{6249F515-9C71-4CDD-B59E-1F54366F8A92}"/>
+    <hyperlink ref="L15" r:id="rId21" xr:uid="{21F82AE3-A2CC-4B80-BB64-76D5E88DDDC9}"/>
+    <hyperlink ref="L11" r:id="rId22" xr:uid="{BE96090B-8B4D-4847-B6CF-0587508FA790}"/>
+    <hyperlink ref="L12" r:id="rId23" xr:uid="{0E017919-4130-451E-8F58-209579EB54E5}"/>
+    <hyperlink ref="L10" r:id="rId24" xr:uid="{C290B396-A280-4ED1-8009-948078A28525}"/>
     <hyperlink ref="L8" r:id="rId25" xr:uid="{B12BF664-4374-490A-B577-48803EC6EC18}"/>
     <hyperlink ref="K8" r:id="rId26" xr:uid="{C77CE5B5-97D1-43EF-89BE-50E7C3558263}"/>
-    <hyperlink ref="L15" r:id="rId27" xr:uid="{188668AA-BCC5-4361-B248-E7F464FB7593}"/>
+    <hyperlink ref="L16" r:id="rId27" xr:uid="{188668AA-BCC5-4361-B248-E7F464FB7593}"/>
+    <hyperlink ref="L9" r:id="rId28" xr:uid="{F9C329B2-499E-40B6-B39F-15FE3025DF3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/analysis/data/tables/data_sources.xlsx
+++ b/analysis/data/tables/data_sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahurl\Documents\_work\p024_gfz_berlin-trees\berlin.trees\analysis\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E7912-3D9E-4E3D-B70A-6EC18E9AEC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAF4FEC-626F-4A7B-95F0-EA23DCF51324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="240" windowWidth="28770" windowHeight="15510" xr2:uid="{81895198-9C62-4C93-9E35-5B090025889B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{81895198-9C62-4C93-9E35-5B090025889B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C164DAAA-26B7-4D95-AC26-51CB2201F682}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,8 +1303,8 @@
       <c r="H13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>55</v>
+      <c r="I13" s="4">
+        <v>5</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>92</v>
@@ -1391,11 +1391,11 @@
       <c r="H15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>55</v>
+      <c r="I15" s="4">
+        <v>5</v>
       </c>
       <c r="J15" s="1">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>35</v>
